--- a/zad3.xlsx
+++ b/zad3.xlsx
@@ -15,7 +15,6 @@
     <sheet name="zad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="zad3" localSheetId="0">zad1!$C$1:$D$40</definedName>
     <definedName name="zad3_1" localSheetId="0">zad1!$A$1:$B$10</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
@@ -31,14 +30,6 @@
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="zad3" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/jansnieg/Documents/ISSP6/MK/zad3.csv" decimal="," thousands=" ">
-      <textFields count="2">
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" name="zad31" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/jansnieg/Documents/ISSP6/MK/zad3.csv" decimal="," thousands=" ">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -193,10 +184,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>zad1!$C$1:$C$40</c:f>
+              <c:f>zad1!$A$1:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -226,225 +217,45 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>zad1!$D$1:$D$40</c:f>
+              <c:f>zad1!$B$1:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>151563.0</c:v>
+                  <c:v>102094.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283422.0</c:v>
+                  <c:v>180452.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>392063.0</c:v>
+                  <c:v>239700.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>496618.0</c:v>
+                  <c:v>280352.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>580865.0</c:v>
+                  <c:v>300060.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>651309.0</c:v>
+                  <c:v>293665.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>724183.0</c:v>
+                  <c:v>276861.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>764998.0</c:v>
+                  <c:v>235985.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>815606.0</c:v>
+                  <c:v>179236.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>846359.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>878045.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>905324.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>923901.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>940590.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>953370.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>962709.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>972699.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>974209.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>979121.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>980467.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>979041.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>979291.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>974929.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>970001.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>963572.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>954990.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>943031.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>923517.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>905550.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>878416.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>853439.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>810841.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>773706.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>715362.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>644423.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>586620.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>495565.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>398719.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>281282.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>143498.0</c:v>
+                  <c:v>100280.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -460,11 +271,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2115989344"/>
-        <c:axId val="-2083166720"/>
+        <c:axId val="-2085479296"/>
+        <c:axId val="-2145131584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115989344"/>
+        <c:axId val="-2085479296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,7 +318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083166720"/>
+        <c:crossAx val="-2145131584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -515,7 +326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2083166720"/>
+        <c:axId val="-2145131584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115989344"/>
+        <c:crossAx val="-2085479296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,10 +1050,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad3" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="zad3_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1509,18 +1316,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1528,13 +1335,15 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>98902</v>
+        <v>102094</v>
       </c>
       <c r="C1">
-        <v>0</v>
+        <f>B1/10000</f>
+        <v>10.2094</v>
       </c>
       <c r="D1">
-        <v>151563</v>
+        <f>AVERAGE(C1:C10)</f>
+        <v>21.886849999999999</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1542,13 +1351,11 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>177882</v>
+        <v>180452</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>283422</v>
+        <f t="shared" ref="C2:C10" si="0">B2/10000</f>
+        <v>18.045200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1556,13 +1363,11 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>236459</v>
+        <v>239700</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>392063</v>
+        <f t="shared" si="0"/>
+        <v>23.97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1570,13 +1375,11 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>277977</v>
+        <v>280352</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>496618</v>
+        <f t="shared" si="0"/>
+        <v>28.0352</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1584,13 +1387,11 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>298030</v>
+        <v>300060</v>
       </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>580865</v>
+        <f t="shared" si="0"/>
+        <v>30.006</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1598,13 +1399,11 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>295613</v>
+        <v>293665</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>651309</v>
+        <f t="shared" si="0"/>
+        <v>29.366499999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1612,13 +1411,11 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>276803</v>
+        <v>276861</v>
       </c>
       <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>724183</v>
+        <f t="shared" si="0"/>
+        <v>27.6861</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1626,13 +1423,11 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>234473</v>
+        <v>235985</v>
       </c>
       <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>764998</v>
+        <f t="shared" si="0"/>
+        <v>23.598500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1640,13 +1435,11 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>174921</v>
+        <v>179236</v>
       </c>
       <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>815606</v>
+        <f t="shared" si="0"/>
+        <v>17.9236</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1654,253 +1447,11 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>97876</v>
+        <v>100280</v>
       </c>
       <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>846359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>878045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>905324</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>923901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>940590</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>953370</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>962709</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>972699</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>974209</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>979121</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>980467</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21">
-        <v>20</v>
-      </c>
-      <c r="D21">
-        <v>979041</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22">
-        <v>21</v>
-      </c>
-      <c r="D22">
-        <v>979291</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>974929</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>970001</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25">
-        <v>963572</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>954990</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>943031</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>923517</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>905550</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>878416</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31">
-        <v>853439</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>810841</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>773706</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>715362</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35">
-        <v>34</v>
-      </c>
-      <c r="D35">
-        <v>644423</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36">
-        <v>586620</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37">
-        <v>36</v>
-      </c>
-      <c r="D37">
-        <v>495565</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38">
-        <v>37</v>
-      </c>
-      <c r="D38">
-        <v>398719</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C39">
-        <v>38</v>
-      </c>
-      <c r="D39">
-        <v>281282</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C40">
-        <v>39</v>
-      </c>
-      <c r="D40">
-        <v>143498</v>
+        <f t="shared" si="0"/>
+        <v>10.028</v>
       </c>
     </row>
   </sheetData>
